--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM002.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM002.xlsx
@@ -79,7 +79,7 @@
     <definedName name="Ｏホ">#REF!</definedName>
     <definedName name="PG単価">[8]明細合計!#REF!</definedName>
     <definedName name="PG田中">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">マスタリスト!$A$1:$I$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">マスタリスト!$A$1:$I$41</definedName>
     <definedName name="PrintDaicho">[9]!PrintDaicho</definedName>
     <definedName name="QuitDaicho">[9]!QuitDaicho</definedName>
     <definedName name="SE単価">[8]明細合計!#REF!</definedName>
@@ -465,9 +465,7 @@
       <right style="thin">
         <color theme="6"/>
       </right>
-      <top style="thin">
-        <color theme="6"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color theme="6" tint="-0.249977111117893"/>
       </bottom>
@@ -480,9 +478,7 @@
       <right style="thin">
         <color theme="6"/>
       </right>
-      <top style="thin">
-        <color theme="6"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color theme="6" tint="-0.249977111117893"/>
       </bottom>
@@ -495,9 +491,7 @@
       <right style="medium">
         <color theme="6" tint="-0.249977111117893"/>
       </right>
-      <top style="thin">
-        <color theme="6"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color theme="6" tint="-0.249977111117893"/>
       </bottom>
@@ -561,19 +555,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="3" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -606,10 +591,19 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -44486,9 +44480,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:G39"/>
+  <dimension ref="B1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12"/>
   <cols>
@@ -44505,32 +44499,32 @@
   <sheetData>
     <row r="1" spans="2:7" ht="12.75" thickBot="1"/>
     <row r="2" spans="2:7" ht="13.15" customHeight="1">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="13.15" customHeight="1">
-      <c r="B3" s="24"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="22"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" spans="2:7" ht="13.15" customHeight="1">
       <c r="B4" s="11"/>
@@ -44649,8 +44643,8 @@
       <c r="C18" s="2"/>
       <c r="D18" s="4"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="32"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="17"/>
     </row>
     <row r="19" spans="2:7" ht="13.15" customHeight="1">
       <c r="B19" s="13"/>
@@ -44812,13 +44806,21 @@
       <c r="F38" s="2"/>
       <c r="G38" s="12"/>
     </row>
-    <row r="39" spans="2:7" ht="13.15" customHeight="1" thickBot="1">
-      <c r="B39" s="16"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="20"/>
+    <row r="39" spans="2:7" ht="13.15" customHeight="1">
+      <c r="B39" s="13"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="14"/>
+    </row>
+    <row r="40" spans="2:7" ht="13.15" customHeight="1" thickBot="1">
+      <c r="B40" s="28"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -44831,7 +44833,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.2" right="0.2" top="0.75" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"ＭＳ ゴシック,Regular"&amp;10日通システム株式会社  &amp;C&amp;"ＭＳ ゴシック,Regular"&amp;16銀行の登録 &amp;R&amp;"ＭＳ ゴシック,Regular"&amp;10&amp;KFF0000 &amp;K01+000     &amp;D　&amp;T　
 &amp;KFF0000 &amp;K01+000          page&amp;P</oddHeader>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM002.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM002.xlsx
@@ -79,7 +79,7 @@
     <definedName name="Ｏホ">#REF!</definedName>
     <definedName name="PG単価">[8]明細合計!#REF!</definedName>
     <definedName name="PG田中">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">マスタリスト!$A$1:$I$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">マスタリスト!$A$1:$K$41</definedName>
     <definedName name="PrintDaicho">[9]!PrintDaicho</definedName>
     <definedName name="QuitDaicho">[9]!QuitDaicho</definedName>
     <definedName name="SE単価">[8]明細合計!#REF!</definedName>
@@ -561,6 +561,21 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -590,21 +605,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -44480,360 +44480,362 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:G40"/>
+  <dimension ref="D1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="1.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="1.140625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.7109375" style="1"/>
+    <col min="1" max="1" width="7.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="1.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="1.140625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="12.75" thickBot="1"/>
-    <row r="2" spans="2:7" ht="13.15" customHeight="1">
-      <c r="B2" s="20" t="s">
+    <row r="1" spans="4:9" ht="12.75" thickBot="1"/>
+    <row r="2" spans="4:9" ht="13.15" customHeight="1">
+      <c r="D2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="E2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="F2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="G2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="H2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="I2" s="23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="13.15" customHeight="1">
-      <c r="B3" s="21"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="19"/>
+    <row r="3" spans="4:9" ht="13.15" customHeight="1">
+      <c r="D3" s="26"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="24"/>
     </row>
-    <row r="4" spans="2:7" ht="13.15" customHeight="1">
-      <c r="B4" s="11"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="12"/>
+    <row r="4" spans="4:9" ht="13.15" customHeight="1">
+      <c r="D4" s="11"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="2:7" ht="13.15" customHeight="1">
-      <c r="B5" s="13"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="14"/>
+    <row r="5" spans="4:9" ht="13.15" customHeight="1">
+      <c r="D5" s="13"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="2:7" ht="13.15" customHeight="1">
-      <c r="B6" s="15"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="12"/>
+    <row r="6" spans="4:9" ht="13.15" customHeight="1">
+      <c r="D6" s="15"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="2:7" ht="13.15" customHeight="1">
-      <c r="B7" s="13"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="14"/>
+    <row r="7" spans="4:9" ht="13.15" customHeight="1">
+      <c r="D7" s="13"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="2:7" ht="13.15" customHeight="1">
-      <c r="B8" s="15"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="12"/>
+    <row r="8" spans="4:9" ht="13.15" customHeight="1">
+      <c r="D8" s="15"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="2:7" ht="13.15" customHeight="1">
-      <c r="B9" s="13"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="14"/>
+    <row r="9" spans="4:9" ht="13.15" customHeight="1">
+      <c r="D9" s="13"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="2:7" ht="13.15" customHeight="1">
-      <c r="B10" s="15"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="12"/>
+    <row r="10" spans="4:9" ht="13.15" customHeight="1">
+      <c r="D10" s="15"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="2:7" ht="13.15" customHeight="1">
-      <c r="B11" s="13"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
+    <row r="11" spans="4:9" ht="13.15" customHeight="1">
+      <c r="D11" s="13"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="14"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="2:7" ht="13.15" customHeight="1">
-      <c r="B12" s="15"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="12"/>
+    <row r="12" spans="4:9" ht="13.15" customHeight="1">
+      <c r="D12" s="15"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="12"/>
     </row>
-    <row r="13" spans="2:7" ht="13.15" customHeight="1">
-      <c r="B13" s="13"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
+    <row r="13" spans="4:9" ht="13.15" customHeight="1">
+      <c r="D13" s="13"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="14"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="2:7" ht="13.15" customHeight="1">
-      <c r="B14" s="15"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="12"/>
+    <row r="14" spans="4:9" ht="13.15" customHeight="1">
+      <c r="D14" s="15"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="2:7" ht="13.15" customHeight="1">
-      <c r="B15" s="13"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="14"/>
+    <row r="15" spans="4:9" ht="13.15" customHeight="1">
+      <c r="D15" s="13"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="2:7" ht="13.15" customHeight="1">
-      <c r="B16" s="15"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="12"/>
+    <row r="16" spans="4:9" ht="13.15" customHeight="1">
+      <c r="D16" s="15"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="2:7" ht="13.15" customHeight="1">
-      <c r="B17" s="13"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="14"/>
+    <row r="17" spans="4:9" ht="13.15" customHeight="1">
+      <c r="D17" s="13"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="2:7" ht="13.15" customHeight="1">
-      <c r="B18" s="15"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17"/>
+    <row r="18" spans="4:9" ht="13.15" customHeight="1">
+      <c r="D18" s="15"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="2:7" ht="13.15" customHeight="1">
-      <c r="B19" s="13"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="14"/>
+    <row r="19" spans="4:9" ht="13.15" customHeight="1">
+      <c r="D19" s="13"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="2:7" ht="13.15" customHeight="1">
-      <c r="B20" s="15"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="12"/>
+    <row r="20" spans="4:9" ht="13.15" customHeight="1">
+      <c r="D20" s="15"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="12"/>
     </row>
-    <row r="21" spans="2:7" ht="13.15" customHeight="1">
-      <c r="B21" s="13"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="14"/>
+    <row r="21" spans="4:9" ht="13.15" customHeight="1">
+      <c r="D21" s="13"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="2:7" ht="13.15" customHeight="1">
-      <c r="B22" s="15"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="12"/>
+    <row r="22" spans="4:9" ht="13.15" customHeight="1">
+      <c r="D22" s="15"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="2:7" ht="13.15" customHeight="1">
-      <c r="B23" s="13"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="14"/>
+    <row r="23" spans="4:9" ht="13.15" customHeight="1">
+      <c r="D23" s="13"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="2:7" ht="13.15" customHeight="1">
-      <c r="B24" s="15"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="12"/>
+    <row r="24" spans="4:9" ht="13.15" customHeight="1">
+      <c r="D24" s="15"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="2:7" ht="13.15" customHeight="1">
-      <c r="B25" s="13"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="14"/>
+    <row r="25" spans="4:9" ht="13.15" customHeight="1">
+      <c r="D25" s="13"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="14"/>
     </row>
-    <row r="26" spans="2:7" ht="13.15" customHeight="1">
-      <c r="B26" s="15"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="12"/>
+    <row r="26" spans="4:9" ht="13.15" customHeight="1">
+      <c r="D26" s="15"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="12"/>
     </row>
-    <row r="27" spans="2:7" ht="13.15" customHeight="1">
-      <c r="B27" s="13"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="14"/>
+    <row r="27" spans="4:9" ht="13.15" customHeight="1">
+      <c r="D27" s="13"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="2:7" ht="13.15" customHeight="1">
-      <c r="B28" s="15"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="12"/>
+    <row r="28" spans="4:9" ht="13.15" customHeight="1">
+      <c r="D28" s="15"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="12"/>
     </row>
-    <row r="29" spans="2:7" ht="13.15" customHeight="1">
-      <c r="B29" s="13"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="14"/>
+    <row r="29" spans="4:9" ht="13.15" customHeight="1">
+      <c r="D29" s="13"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="14"/>
     </row>
-    <row r="30" spans="2:7" ht="13.15" customHeight="1">
-      <c r="B30" s="15"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="12"/>
+    <row r="30" spans="4:9" ht="13.15" customHeight="1">
+      <c r="D30" s="15"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="12"/>
     </row>
-    <row r="31" spans="2:7" ht="13.15" customHeight="1">
-      <c r="B31" s="13"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="14"/>
+    <row r="31" spans="4:9" ht="13.15" customHeight="1">
+      <c r="D31" s="13"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="14"/>
     </row>
-    <row r="32" spans="2:7" ht="13.15" customHeight="1">
-      <c r="B32" s="15"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="12"/>
+    <row r="32" spans="4:9" ht="13.15" customHeight="1">
+      <c r="D32" s="15"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="12"/>
     </row>
-    <row r="33" spans="2:7" ht="13.15" customHeight="1">
-      <c r="B33" s="13"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="14"/>
+    <row r="33" spans="4:9" ht="13.15" customHeight="1">
+      <c r="D33" s="13"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="14"/>
     </row>
-    <row r="34" spans="2:7" ht="13.15" customHeight="1">
-      <c r="B34" s="15"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="12"/>
+    <row r="34" spans="4:9" ht="13.15" customHeight="1">
+      <c r="D34" s="15"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="12"/>
     </row>
-    <row r="35" spans="2:7" ht="13.15" customHeight="1">
-      <c r="B35" s="13"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="14"/>
+    <row r="35" spans="4:9" ht="13.15" customHeight="1">
+      <c r="D35" s="13"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="14"/>
     </row>
-    <row r="36" spans="2:7" ht="13.15" customHeight="1">
-      <c r="B36" s="15"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="12"/>
+    <row r="36" spans="4:9" ht="13.15" customHeight="1">
+      <c r="D36" s="15"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="12"/>
     </row>
-    <row r="37" spans="2:7" ht="13.15" customHeight="1">
-      <c r="B37" s="13"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="14"/>
+    <row r="37" spans="4:9" ht="13.15" customHeight="1">
+      <c r="D37" s="13"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="14"/>
     </row>
-    <row r="38" spans="2:7" ht="13.15" customHeight="1">
-      <c r="B38" s="15"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="12"/>
+    <row r="38" spans="4:9" ht="13.15" customHeight="1">
+      <c r="D38" s="15"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="12"/>
     </row>
-    <row r="39" spans="2:7" ht="13.15" customHeight="1">
-      <c r="B39" s="13"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="14"/>
+    <row r="39" spans="4:9" ht="13.15" customHeight="1">
+      <c r="D39" s="13"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="14"/>
     </row>
-    <row r="40" spans="2:7" ht="13.15" customHeight="1" thickBot="1">
-      <c r="B40" s="28"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="32"/>
+    <row r="40" spans="4:9" ht="13.15" customHeight="1" thickBot="1">
+      <c r="D40" s="18"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="I2:I3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.2" right="0.2" top="0.75" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"ＭＳ ゴシック,Regular"&amp;10日通システム株式会社  &amp;C&amp;"ＭＳ ゴシック,Regular"&amp;16銀行の登録 &amp;R&amp;"ＭＳ ゴシック,Regular"&amp;10&amp;KFF0000 &amp;K01+000     &amp;D　&amp;T　
 &amp;KFF0000 &amp;K01+000          page&amp;P</oddHeader>
